--- a/Fukuyama/作業工程ゲームキャンプ-29ef7070.000.xlsx
+++ b/Fukuyama/作業工程ゲームキャンプ-29ef7070.000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeokahiroki\Desktop\GCLUC2019\GameProject\Fukuyama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9812589D-4909-492E-8B4D-CDBEED99D313}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A1974-4259-434B-9E1B-82349A7EA0A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C9BED77F-0D35-4DFE-B808-232B80966FA5}"/>
   </bookViews>
@@ -1121,12 +1121,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9127D53-FB54-4730-830D-357FFF7D8A43}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="750" activePane="bottomLeft"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1192,7 +1193,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1212,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B3" s="24"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1221,7 +1222,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="24"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1231,7 +1232,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="24"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1243,7 +1244,7 @@
       </c>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="24"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1253,7 +1254,7 @@
       </c>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1263,7 +1264,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" s="24"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -1274,7 +1275,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" s="24"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1283,7 +1284,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" s="24"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
@@ -1325,7 +1326,7 @@
       <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B13" s="24"/>
@@ -1341,7 +1342,7 @@
       <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="24"/>
@@ -1355,7 +1356,7 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B15" s="24"/>
@@ -1369,7 +1370,7 @@
       <c r="H15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B16" s="24"/>
@@ -1383,9 +1384,9 @@
       <c r="H16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
       <c r="C17" s="22"/>
       <c r="D17" s="21" t="s">
@@ -1401,7 +1402,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="24"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
@@ -1413,9 +1414,9 @@
       <c r="H18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21" t="s">
@@ -1431,7 +1432,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
@@ -1445,7 +1446,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="24"/>
       <c r="C21" s="22"/>
       <c r="D21" s="1" t="s">
@@ -1461,7 +1462,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="24"/>
       <c r="C22" s="22"/>
       <c r="D22" s="21" t="s">
@@ -1477,7 +1478,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -1491,9 +1492,9 @@
       <c r="H23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1505,9 +1506,9 @@
       <c r="H24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
         <v>23</v>
@@ -1523,7 +1524,7 @@
       </c>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="35"/>
@@ -1539,7 +1540,7 @@
       </c>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
         <v>24</v>
@@ -1553,9 +1554,9 @@
       <c r="H27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="35"/>
@@ -1567,9 +1568,9 @@
       <c r="H28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="36"/>
@@ -1581,9 +1582,9 @@
       <c r="H29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="P29" s="15"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
       <c r="C30" s="21" t="s">
         <v>28</v>
@@ -1601,9 +1602,9 @@
       <c r="H30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -1615,9 +1616,9 @@
       <c r="H31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -1629,9 +1630,9 @@
       <c r="H32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="24"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -1645,9 +1646,9 @@
       <c r="H33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="24"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -1659,9 +1660,9 @@
       <c r="H34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="24"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -1673,9 +1674,9 @@
       <c r="H35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" s="24"/>
       <c r="C36" s="22"/>
       <c r="D36" s="23"/>
@@ -1687,9 +1688,9 @@
       <c r="H36" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="24"/>
       <c r="C37" s="22"/>
       <c r="D37" s="21" t="s">
@@ -1705,9 +1706,9 @@
       <c r="H37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="24"/>
       <c r="C38" s="22"/>
       <c r="D38" s="23"/>
@@ -1719,9 +1720,9 @@
       <c r="H38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B39" s="24"/>
       <c r="C39" s="22"/>
       <c r="D39" s="21" t="s">
@@ -1737,9 +1738,9 @@
       <c r="H39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B40" s="24"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -1751,9 +1752,9 @@
       <c r="H40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B41" s="24"/>
       <c r="C41" s="1" t="s">
         <v>37</v>
@@ -1767,9 +1768,9 @@
       <c r="H41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="24"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1781,9 +1782,9 @@
       <c r="H42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="24" t="s">
         <v>42</v>
       </c>
@@ -1797,9 +1798,9 @@
       <c r="H43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -1811,9 +1812,9 @@
       <c r="H44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B45" s="24"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -1825,9 +1826,9 @@
       <c r="H45" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B46" s="24"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -1841,7 +1842,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1855,9 +1856,9 @@
       <c r="H47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="2:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="24" t="s">
@@ -1868,9 +1869,9 @@
       <c r="H48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1907,7 +1908,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="24"/>
@@ -1920,7 +1921,7 @@
       </c>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="24" t="s">
@@ -1933,7 +1934,7 @@
       </c>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
       <c r="E53" s="24" t="s">
@@ -1946,7 +1947,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="22"/>
       <c r="D54" s="24" t="s">
         <v>30</v>
@@ -1961,7 +1962,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C55" s="22"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24" t="s">
@@ -1974,7 +1975,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="22"/>
       <c r="D56" s="1" t="s">
         <v>31</v>
@@ -1989,7 +1990,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="22"/>
       <c r="D57" s="1" t="s">
         <v>32</v>
@@ -2004,7 +2005,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="22"/>
       <c r="D58" s="24" t="s">
         <v>19</v>
@@ -2019,7 +2020,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="22"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24" t="s">
@@ -2034,7 +2035,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -2048,7 +2049,13 @@
       <c r="I60" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H60" xr:uid="{D1FEE9B5-2F52-436F-8DF9-EB7FDE9A9C28}"/>
+  <autoFilter ref="H1:H60" xr:uid="{D1FEE9B5-2F52-436F-8DF9-EB7FDE9A9C28}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="宮原"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="86">
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="F34:G34"/>
@@ -2138,7 +2145,7 @@
     <mergeCell ref="F59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="N30:N36 P30:XFD36 A13:I16 O13:XFD14 L13:M14 L16:XFD16 P15:XFD15 L15:N15 A17:XFD17 A18:H18 J18:K18 M18:XFD18 A19:XFD22 A23:H24 J23:K24 M23:XFD24 A25:XFD26 A27:H29 J27:XFD29 A30:K41 M37:XFD41 A46:XFD46 A47:I47 K47:XFD47 A49:XFD1048576 A48:L48 N48:XFD48 A42:J45 L42:XFD45 A1:XFD11 A12:H12 J12:XFD12">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -3118,7 +3125,6 @@
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
-    <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="F40:G40"/>
@@ -3134,21 +3140,22 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B2:B42"/>
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="B2:B42"/>
-    <mergeCell ref="C2:C24"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="D49:D53"/>
     <mergeCell ref="E49:G49"/>
     <mergeCell ref="E50:E51"/>
